--- a/cards/payment_channel/payment_channel.xlsx
+++ b/cards/payment_channel/payment_channel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,395 +440,221 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_ab_id</t>
+          <t>pca_code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_airbyte_emitted_at</t>
+          <t>pca_iden</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pca_code</t>
+          <t>pca_labe</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pca_iden</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pca_labe</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>_airbyte_additional_properties</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>source_file_path</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>939401d6-7437-40a4-9842-c496c3b987aa</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>ATM</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ATM CHANNEL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D2" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>9702a27d-6ff5-4164-b9f4-7e9e67e3189b</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>BRANCH</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>BRANCH CHANNEL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D3" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4f41b759-02be-47a5-a80a-9c4d9e311969</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>INTERNET</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>INTERNET CHANNEL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D4" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>fca49d48-b0fd-4208-871b-f5b65f316945</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>CALL CENTER CHANNEL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D5" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7358340c-ebbb-4124-81bc-ab70b161fe92</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>POS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>POS CHANNEL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D6" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>c5e510aa-9ed6-42ed-826b-3f848e23c111</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>VISA CHANNEL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D7" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>d0a1c6ee-8f05-4dd0-a35d-09bef97c1889</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>MASTERCARD</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>MASTERCARD CHANNEL</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D8" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>0bba6200-856e-4b2a-9c02-5603edbead62</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>AMEX</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>AMEX CHANNEL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D9" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>aebd5cbd-19b9-4456-9be6-b4a9b965c31a</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>NATIONAL</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>NATIONAL CHANNEL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D10" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1b37a342-dd50-4d2f-9582-e38165f01efe</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>UPI</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Unionpay Channel</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D11" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>86af1fa1-84d3-4cbd-9cfa-439c0ba6dd00</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45510.3079196875</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12" t="n">
         <v>401</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>payement</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>payement</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45511.29525109382</v>
+      <c r="D12" s="2" t="n">
+        <v>45511.29525109954</v>
       </c>
     </row>
   </sheetData>

--- a/cards/payment_channel/payment_channel.xlsx
+++ b/cards/payment_channel/payment_channel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,221 +440,395 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pca_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pca_iden</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pca_labe</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>939401d6-7437-40a4-9842-c496c3b987aa</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ATM</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ATM CHANNEL</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9702a27d-6ff5-4164-b9f4-7e9e67e3189b</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>BRANCH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>BRANCH CHANNEL</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4f41b759-02be-47a5-a80a-9c4d9e311969</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>INTERNET</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>INTERNET CHANNEL</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fca49d48-b0fd-4208-871b-f5b65f316945</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CALL CENTER CHANNEL</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7358340c-ebbb-4124-81bc-ab70b161fe92</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>POS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>POS CHANNEL</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c5e510aa-9ed6-42ed-826b-3f848e23c111</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>VISA CHANNEL</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>d0a1c6ee-8f05-4dd0-a35d-09bef97c1889</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>MASTERCARD</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>MASTERCARD CHANNEL</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0bba6200-856e-4b2a-9c02-5603edbead62</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>AMEX</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>AMEX CHANNEL</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aebd5cbd-19b9-4456-9be6-b4a9b965c31a</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>NATIONAL</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>NATIONAL CHANNEL</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1b37a342-dd50-4d2f-9582-e38165f01efe</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>UPI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Unionpay Channel</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>86af1fa1-84d3-4cbd-9cfa-439c0ba6dd00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="n">
         <v>401</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>payement</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>payement</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>45511.29525109954</v>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/PAYMENT_CHANNEL/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45511.29525109382</v>
       </c>
     </row>
   </sheetData>
